--- a/data/dataExtraction.xlsx
+++ b/data/dataExtraction.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="452">
   <si>
     <t>BibTexKey</t>
   </si>
@@ -702,10 +702,7 @@
     <t>practice-instance</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>dimension</t>
+    <t>KP/Instance</t>
   </si>
   <si>
     <t>Appropriate guidelines are required for devising quality assessment strategies.</t>
@@ -714,19 +711,10 @@
     <t>Guidelines for QA are necessary</t>
   </si>
   <si>
-    <t>Define and apply appropriate guidelines for quality assessment strategies.</t>
-  </si>
-  <si>
-    <t>Quality Assurance</t>
-  </si>
-  <si>
-    <t>The possible differences between SLR and SMS could offer advice when researchers perform quality assessment in SLR and SMS.</t>
-  </si>
-  <si>
-    <t>SLR/SMS guidelines to perform QA evaluation</t>
-  </si>
-  <si>
-    <t>Consider differences between SLR and SMS when conducting quality assessment.</t>
+    <t>Develop appropriate strategies for quality assessment strategies.</t>
+  </si>
+  <si>
+    <t>KP</t>
   </si>
   <si>
     <t>For each aspect, researchers can gain the knowledge of the most concerned criteria, which is particularly helpful in developing and applying quality assessment instruments for future SLRs.</t>
@@ -735,7 +723,10 @@
     <t>Use common criteria for QA evaluation</t>
   </si>
   <si>
-    <t>Identify and use key criteria to develop and apply quality assessment instruments for future SLRs.</t>
+    <t>Identify and reuse criteria to develop and apply quality assessment instruments for future SLRs.</t>
+  </si>
+  <si>
+    <t>Instance</t>
   </si>
   <si>
     <t>Systematic reviewers can form their own quality assessment checklists by selecting and revising several questions from the original questions.</t>
@@ -765,9 +756,6 @@
     <t>Perform independent review check by at least two researchers to reduce bias.</t>
   </si>
   <si>
-    <t>Validation &amp; Reliability</t>
-  </si>
-  <si>
     <t>The disagreements on search and selection opinions were solved in joint discussion.</t>
   </si>
   <si>
@@ -804,9 +792,6 @@
     <t>Ensure a clear statement of research aims and objectives.</t>
   </si>
   <si>
-    <t>Documentation, transparency &amp; reproducibility</t>
-  </si>
-  <si>
     <t>Is there an adequate description of the context in which the research was carried out?</t>
   </si>
   <si>
@@ -915,9 +900,6 @@
     <t>Apply search strategy aligned with research aims.</t>
   </si>
   <si>
-    <t>Coverage</t>
-  </si>
-  <si>
     <t>Is the methodology (design) used suitable to address the stated research questions?</t>
   </si>
   <si>
@@ -999,9 +981,6 @@
     <t>Ensure study contributes value to research or practice.</t>
   </si>
   <si>
-    <t>Knowledge management</t>
-  </si>
-  <si>
     <t>Are conclusions, implications for practice and future research, reported suitably for its audience?</t>
   </si>
   <si>
@@ -1209,9 +1188,6 @@
     <t>Pilot, review, and refine protocols for usability and rigor.</t>
   </si>
   <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
     <t>"Any revisions should be outlined and commented upon in subsequent publications and the protocol described should be transparent and complete enough to allow for replication."</t>
   </si>
   <si>
@@ -1381,9 +1357,6 @@
   </si>
   <si>
     <t>Promote ongoing discussion on bias detection and minimization in LCA.</t>
-  </si>
-  <si>
-    <t>Collaboration &amp; communication</t>
   </si>
   <si>
     <t>"We recommend that, in the interest of transparency, methods be clearly described and any new data presented as part of the publication."</t>
@@ -1439,15 +1412,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1926,19 +1899,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1947,7 +1920,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2071,7 +2044,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2085,9 +2058,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2095,15 +2071,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2160,7 +2134,7 @@
     <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
@@ -2174,9 +2148,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf/>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2188,21 +2159,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F77" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F77" etc:filterBottomFollowUsedRange="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E76" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E76" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="0">
       <customFilters>
         <customFilter operator="equal" val="S1"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="6">
+  <tableColumns count="5">
     <tableColumn id="1" name="BibTexKey" dataDxfId="0"/>
     <tableColumn id="2" name="text-passage" dataDxfId="1"/>
     <tableColumn id="3" name="code" dataDxfId="2"/>
     <tableColumn id="6" name="practice-instance" dataDxfId="3"/>
-    <tableColumn id="7" name="level"/>
-    <tableColumn id="4" name="dimension" dataDxfId="4"/>
+    <tableColumn id="4" name="KP/Instance"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2481,1395 +2451,1395 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15">
         <v>45931.6000231481</v>
       </c>
-      <c r="V2" s="14">
+      <c r="V2" s="15">
         <v>45932.5828472222</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" s="14"/>
+      <c r="Z2" s="15"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15" t="s">
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15" t="s">
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15">
+      <c r="T3" s="16"/>
+      <c r="U3" s="16">
         <v>45931.6000231481</v>
       </c>
-      <c r="V3" s="15">
+      <c r="V3" s="16">
         <v>45932.5787731481</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="Y3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="Z3" s="15"/>
+      <c r="Z3" s="16"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14">
+      <c r="T4" s="15"/>
+      <c r="U4" s="15">
         <v>45931.6000231481</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V4" s="15">
         <v>45931.6000231481</v>
       </c>
-      <c r="W4" s="14" t="s">
+      <c r="W4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14" t="s">
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" s="14"/>
+      <c r="Z4" s="15"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15" t="s">
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15" t="s">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15">
+      <c r="T5" s="16"/>
+      <c r="U5" s="16">
         <v>45931.6000231481</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="16">
         <v>45931.6000231481</v>
       </c>
-      <c r="W5" s="15" t="s">
+      <c r="W5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15" t="s">
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="15"/>
+      <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14" t="s">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14" t="s">
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14">
+      <c r="T6" s="15"/>
+      <c r="U6" s="15">
         <v>45931.6000231481</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V6" s="15">
         <v>45931.6000231481</v>
       </c>
-      <c r="W6" s="14" t="s">
+      <c r="W6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14" t="s">
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Z6" s="14"/>
+      <c r="Z6" s="15"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15" t="s">
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15" t="s">
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15">
+      <c r="T7" s="16"/>
+      <c r="U7" s="16">
         <v>45931.6000231481</v>
       </c>
-      <c r="V7" s="15">
+      <c r="V7" s="16">
         <v>45931.6000231481</v>
       </c>
-      <c r="W7" s="15" t="s">
+      <c r="W7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15" t="s">
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="Z7" s="15"/>
+      <c r="Z7" s="16"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14" t="s">
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14" t="s">
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14">
+      <c r="T8" s="15"/>
+      <c r="U8" s="15">
         <v>45931.6000231481</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="15">
         <v>45931.6000231481</v>
       </c>
-      <c r="W8" s="14" t="s">
+      <c r="W8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14" t="s">
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Z8" s="14"/>
+      <c r="Z8" s="15"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15" t="s">
+      <c r="H9" s="16"/>
+      <c r="I9" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15" t="s">
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16">
         <v>45931.6000231481</v>
       </c>
-      <c r="V9" s="15">
+      <c r="V9" s="16">
         <v>45931.6000231481</v>
       </c>
-      <c r="W9" s="15" t="s">
+      <c r="W9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15" t="s">
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="Z9" s="15"/>
+      <c r="Z9" s="16"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14" t="s">
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15">
         <v>45931.6000231481</v>
       </c>
-      <c r="V10" s="14">
+      <c r="V10" s="15">
         <v>45931.6000231481</v>
       </c>
-      <c r="W10" s="14" t="s">
+      <c r="W10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14" t="s">
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Z10" s="14"/>
+      <c r="Z10" s="15"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15" t="s">
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15" t="s">
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15">
+      <c r="T11" s="16"/>
+      <c r="U11" s="16">
         <v>45931.6000231481</v>
       </c>
-      <c r="V11" s="15">
+      <c r="V11" s="16">
         <v>45931.6000231481</v>
       </c>
-      <c r="W11" s="15" t="s">
+      <c r="W11" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15" t="s">
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="Z11" s="15"/>
+      <c r="Z11" s="16"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14">
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15">
         <v>45931.6000231481</v>
       </c>
-      <c r="V12" s="14">
+      <c r="V12" s="15">
         <v>45931.6000231481</v>
       </c>
-      <c r="W12" s="14" t="s">
+      <c r="W12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14" t="s">
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Z12" s="14"/>
+      <c r="Z12" s="15"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="s">
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15" t="s">
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15" t="s">
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15">
+      <c r="T13" s="16"/>
+      <c r="U13" s="16">
         <v>45931.6000231481</v>
       </c>
-      <c r="V13" s="15">
+      <c r="V13" s="16">
         <v>45931.6000231481</v>
       </c>
-      <c r="W13" s="15" t="s">
+      <c r="W13" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15" t="s">
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="Z13" s="15"/>
+      <c r="Z13" s="16"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14" t="s">
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14" t="s">
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14">
+      <c r="T14" s="15"/>
+      <c r="U14" s="15">
         <v>45931.6000231481</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V14" s="15">
         <v>45931.6000231481</v>
       </c>
-      <c r="W14" s="14" t="s">
+      <c r="W14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14" t="s">
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Z14" s="14"/>
+      <c r="Z14" s="15"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15" t="s">
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15" t="s">
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15">
+      <c r="T15" s="16"/>
+      <c r="U15" s="16">
         <v>45931.6000231481</v>
       </c>
-      <c r="V15" s="15">
+      <c r="V15" s="16">
         <v>45931.6000231481</v>
       </c>
-      <c r="W15" s="15" t="s">
+      <c r="W15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15" t="s">
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="Z15" s="15"/>
+      <c r="Z15" s="16"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14" t="s">
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14">
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15">
         <v>45931.6000231481</v>
       </c>
-      <c r="V16" s="14">
+      <c r="V16" s="15">
         <v>45931.6000231481</v>
       </c>
-      <c r="W16" s="14" t="s">
+      <c r="W16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14" t="s">
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Z16" s="14"/>
+      <c r="Z16" s="15"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15" t="s">
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15">
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16">
         <v>45931.6000231481</v>
       </c>
-      <c r="V17" s="15">
+      <c r="V17" s="16">
         <v>45931.6000231481</v>
       </c>
-      <c r="W17" s="15" t="s">
+      <c r="W17" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15" t="s">
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="Z17" s="15"/>
+      <c r="Z17" s="16"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14" t="s">
+      <c r="H18" s="15"/>
+      <c r="I18" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="L18" s="14" t="s">
+      <c r="L18" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14" t="s">
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14">
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15">
         <v>45931.6000231481</v>
       </c>
-      <c r="V18" s="14">
+      <c r="V18" s="15">
         <v>45931.6000231481</v>
       </c>
-      <c r="W18" s="14" t="s">
+      <c r="W18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14" t="s">
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Z18" s="14"/>
+      <c r="Z18" s="15"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15" t="s">
+      <c r="H19" s="16"/>
+      <c r="I19" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15" t="s">
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15">
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16">
         <v>45931.6000231481</v>
       </c>
-      <c r="V19" s="15">
+      <c r="V19" s="16">
         <v>45931.6000231481</v>
       </c>
-      <c r="W19" s="15" t="s">
+      <c r="W19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15" t="s">
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="Z19" s="15"/>
+      <c r="Z19" s="16"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="L20" s="14" t="s">
+      <c r="L20" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14">
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15">
         <v>45931.6000231481</v>
       </c>
-      <c r="V20" s="14">
+      <c r="V20" s="15">
         <v>45931.6000231481</v>
       </c>
-      <c r="W20" s="14" t="s">
+      <c r="W20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14" t="s">
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Z20" s="14"/>
+      <c r="Z20" s="15"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15" t="s">
+      <c r="H21" s="16"/>
+      <c r="I21" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15" t="s">
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15" t="s">
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15">
+      <c r="T21" s="16"/>
+      <c r="U21" s="16">
         <v>45931.6000231481</v>
       </c>
-      <c r="V21" s="15">
+      <c r="V21" s="16">
         <v>45931.6000231481</v>
       </c>
-      <c r="W21" s="15" t="s">
+      <c r="W21" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15" t="s">
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="Z21" s="15"/>
+      <c r="Z21" s="16"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14" t="s">
+      <c r="H22" s="15"/>
+      <c r="I22" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14" t="s">
+      <c r="K22" s="15"/>
+      <c r="L22" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14" t="s">
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14">
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15">
         <v>45931.6000231481</v>
       </c>
-      <c r="V22" s="14">
+      <c r="V22" s="15">
         <v>45931.6000231481</v>
       </c>
-      <c r="W22" s="14" t="s">
+      <c r="W22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14" t="s">
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Z22" s="14"/>
+      <c r="Z22" s="15"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15" t="s">
+      <c r="H23" s="16"/>
+      <c r="I23" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="K23" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15" t="s">
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15">
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16">
         <v>45931.6000231481</v>
       </c>
-      <c r="V23" s="15">
+      <c r="V23" s="16">
         <v>45931.6000231481</v>
       </c>
-      <c r="W23" s="15" t="s">
+      <c r="W23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15" t="s">
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="Z23" s="15"/>
+      <c r="Z23" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3881,24 +3851,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.4444444444444" style="2" customWidth="1"/>
-    <col min="2" max="2" width="57.8888888888889" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.8888888888889" style="4" customWidth="1"/>
+    <col min="2" max="2" width="73.9814814814815" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.6574074074074" style="4" customWidth="1"/>
     <col min="4" max="4" width="63.8888888888889" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.4444444444444" style="4" customWidth="1"/>
-    <col min="6" max="6" width="28.1111111111111" style="5" customWidth="1"/>
-    <col min="7" max="8" width="42.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="24.7592592592593" style="5" customWidth="1"/>
+    <col min="6" max="6" width="42.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3911,1577 +3880,1107 @@
       <c r="D1" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="28.8" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="C2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" s="9">
-        <v>3</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="9">
-        <v>3</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="43.2" spans="1:7">
-      <c r="A4" s="7" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="9">
-        <v>3</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A5" s="7" t="s">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E5" s="9">
-        <v>3</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A6" s="7" t="s">
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="E6" s="9">
-        <v>3</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="43.2" spans="1:7">
-      <c r="A7" s="7" t="s">
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:5">
+      <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="E7" s="9">
-        <v>3</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A8" s="7" t="s">
+      <c r="C8" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E8" s="9">
-        <v>3</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A9" s="7" t="s">
+      <c r="C9" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E9" s="9">
-        <v>3</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A10" s="7" t="s">
+      <c r="C10" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:5">
+      <c r="A11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E10" s="9">
-        <v>3</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A11" s="7" t="s">
+      <c r="C11" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:5">
+      <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E11" s="9">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="C12" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A12" s="7" t="s">
+      <c r="D12" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:5">
+      <c r="A13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A13" s="7" t="s">
+      <c r="D13" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A14" s="7" t="s">
+      <c r="D14" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E14" s="9">
-        <v>2</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A15" s="7" t="s">
+      <c r="D15" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A16" s="7" t="s">
+      <c r="D16" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:5">
+      <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A17" s="7" t="s">
+      <c r="D17" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:5">
+      <c r="A18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:7">
-      <c r="A18" s="7" t="s">
+      <c r="D18" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:5">
+      <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:7">
-      <c r="A19" s="7" t="s">
+      <c r="D19" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:5">
+      <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="E19" s="9">
-        <v>1</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A20" s="7" t="s">
+      <c r="D20" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:5">
+      <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A21" s="7" t="s">
+      <c r="D21" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:5">
+      <c r="A22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A22" s="7" t="s">
+      <c r="D22" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:5">
+      <c r="A23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E22" s="9">
-        <v>1</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:7">
-      <c r="A23" s="7" t="s">
+      <c r="D23" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="E23" s="9">
-        <v>2</v>
-      </c>
-      <c r="F23" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A24" s="7" t="s">
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:5">
+      <c r="A25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="E24" s="9">
-        <v>1</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A25" s="7" t="s">
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="E25" s="9">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A26" s="7" t="s">
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="E26" s="9">
-        <v>1</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A27" s="7" t="s">
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:5">
+      <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="E27" s="9">
-        <v>3</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A28" s="7" t="s">
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:5">
+      <c r="A29" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="E28" s="9">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A29" s="7" t="s">
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:5">
+      <c r="A30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="E29" s="9">
-        <v>2</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A30" s="7" t="s">
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:5">
+      <c r="A31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E30" s="9">
-        <v>2</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:7">
-      <c r="A31" s="7" t="s">
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="E31" s="9">
-        <v>3</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:7">
-      <c r="A32" s="7" t="s">
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:5">
+      <c r="A33" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D33" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="E32" s="9">
-        <v>5</v>
-      </c>
-      <c r="F32" s="10" t="s">
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A34" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A33" s="7" t="s">
+      <c r="C34" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D33" s="8" t="s">
+      <c r="B35" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="E33" s="9">
-        <v>5</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A34" s="7" t="s">
+      <c r="C35" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A36" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="B36" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E34" s="9">
-        <v>5</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A35" s="7" t="s">
+      <c r="C36" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A37" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D35" s="8" t="s">
+      <c r="B37" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="E35" s="9">
-        <v>3</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A36" s="7" t="s">
+      <c r="C37" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="72" spans="1:5">
+      <c r="A38" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D36" s="8" t="s">
+      <c r="B38" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E36" s="9">
-        <v>3</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="43.2" spans="1:7">
-      <c r="A37" s="7" t="s">
+      <c r="C38" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A39" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D37" s="8" t="s">
+      <c r="B39" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="E37" s="9">
-        <v>3</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="43.2" spans="1:7">
-      <c r="A38" s="7" t="s">
+      <c r="C39" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A40" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D38" s="8" t="s">
+      <c r="B40" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="E38" s="9">
-        <v>3</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="86.4" spans="1:7">
-      <c r="A39" s="7" t="s">
+      <c r="C40" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="43.2" spans="1:5">
+      <c r="A41" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D39" s="8" t="s">
+      <c r="B41" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="E39" s="9">
-        <v>2</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A40" s="7" t="s">
+      <c r="C41" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A42" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="B42" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E40" s="9">
-        <v>2</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A41" s="7" t="s">
+      <c r="C42" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A43" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D41" s="8" t="s">
+      <c r="B43" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="E41" s="9">
-        <v>2</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="43.2" spans="1:7">
-      <c r="A42" s="7" t="s">
+      <c r="C43" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="43.2" spans="1:5">
+      <c r="A44" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D42" s="8" t="s">
+      <c r="B44" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="E42" s="9">
-        <v>2</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="43.2" spans="1:7">
-      <c r="A43" s="7" t="s">
+      <c r="C44" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="43.2" spans="1:5">
+      <c r="A45" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D43" s="8" t="s">
+      <c r="B45" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="E43" s="9">
-        <v>3</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="43.2" spans="1:7">
-      <c r="A44" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D45" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A46" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="E44" s="9">
-        <v>3</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="43.2" spans="1:7">
-      <c r="A45" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="4" t="s">
+      <c r="C46" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D46" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="D45" s="8" t="s">
+    </row>
+    <row r="47" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A47" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="E45" s="9">
-        <v>3</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="43.2" spans="1:7">
-      <c r="A46" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D47" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="D46" s="8" t="s">
+    </row>
+    <row r="48" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A48" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="E46" s="9">
-        <v>3</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A47" s="7" t="s">
+      <c r="C48" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A49" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D47" s="12" t="s">
+      <c r="B49" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="E47" s="2">
-        <v>1</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A48" s="7" t="s">
+      <c r="C49" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A50" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D48" s="12" t="s">
+      <c r="B50" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="E48" s="2">
-        <v>1</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A49" s="7" t="s">
+      <c r="C50" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A51" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D49" s="12" t="s">
+      <c r="B51" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="E49" s="2">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A50" s="7" t="s">
+      <c r="C51" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A52" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D50" s="12" t="s">
+      <c r="B52" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="E50" s="2">
-        <v>1</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A51" s="7" t="s">
+      <c r="C52" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A53" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D51" s="12" t="s">
+      <c r="B53" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="E51" s="2">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A52" s="7" t="s">
+      <c r="C53" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A54" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D52" s="12" t="s">
+      <c r="B54" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="E52" s="2">
-        <v>1</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A53" s="7" t="s">
+      <c r="C54" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A55" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D53" s="12" t="s">
+      <c r="B55" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="E53" s="2">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A54" s="7" t="s">
+      <c r="C55" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A56" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D54" s="12" t="s">
+      <c r="B56" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="E54" s="2">
-        <v>1</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A55" s="7" t="s">
+      <c r="C56" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A57" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D55" s="12" t="s">
+      <c r="B57" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="E55" s="2">
-        <v>1</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="56" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A56" s="7" t="s">
+      <c r="D57" s="13" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A58" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="B58" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="C58" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E56" s="2">
-        <v>1</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A57" s="7" t="s">
+      <c r="D58" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A59" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B59" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="C59" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E57" s="2">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A58" s="7" t="s">
+      <c r="D59" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A60" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="B60" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="C60" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E58" s="2">
-        <v>1</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A59" s="7" t="s">
+      <c r="D60" s="13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A61" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="B61" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="C61" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E59" s="2">
-        <v>1</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A60" s="7" t="s">
+      <c r="D61" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A62" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="B62" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="C62" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E60" s="2">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A61" s="7" t="s">
+      <c r="D62" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A63" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="B63" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="C63" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E61" s="2">
-        <v>1</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A62" s="7" t="s">
+      <c r="D63" s="13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A64" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="B64" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="C64" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E62" s="2">
-        <v>1</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A63" s="7" t="s">
+      <c r="D64" s="13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A65" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="B65" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="C65" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E63" s="2">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A64" s="7" t="s">
+      <c r="D65" s="13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A66" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="B66" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="C66" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E64" s="2">
-        <v>1</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A65" s="7" t="s">
+      <c r="D66" s="13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A67" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="B67" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="C67" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E65" s="2">
-        <v>1</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A66" s="7" t="s">
+      <c r="D67" s="13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A68" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="B68" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="C68" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E66" s="2">
-        <v>1</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A67" s="7" t="s">
+      <c r="D68" s="13" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A69" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="B69" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="C69" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E67" s="2">
-        <v>1</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A68" s="7" t="s">
+      <c r="D69" s="13" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A70" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="B70" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="C70" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E68" s="2">
-        <v>1</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A69" s="7" t="s">
+      <c r="D70" s="13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A71" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="B71" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="C71" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E69" s="2">
-        <v>1</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="70" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A70" s="7" t="s">
+      <c r="D71" s="13" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A72" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="B72" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="C72" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E70" s="2">
-        <v>1</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="71" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A71" s="7" t="s">
+      <c r="D72" s="13" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A73" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="B73" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="C73" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="E71" s="2">
-        <v>1</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A72" s="7" t="s">
+      <c r="D73" s="13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A74" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="B74" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="C74" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E72" s="2">
-        <v>1</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A73" s="7" t="s">
+      <c r="D74" s="13" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A75" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="B75" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="C75" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="E73" s="2">
-        <v>1</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="74" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A74" s="7" t="s">
+      <c r="D75" s="13" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" hidden="1" spans="1:4">
+      <c r="A76" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="B76" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="C76" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E74" s="2">
-        <v>1</v>
-      </c>
-      <c r="F74" s="2" t="s">
+      <c r="D76" s="13" t="s">
         <v>451</v>
-      </c>
-    </row>
-    <row r="75" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A75" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="E75" s="2">
-        <v>1</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="76" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A76" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="E76" s="2">
-        <v>1</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="77" s="1" customFormat="1" hidden="1" spans="1:6">
-      <c r="A77" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="E77" s="2">
-        <v>1</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -5489,7 +4988,7 @@
   <pageSetup paperSize="9" scale="35" orientation="portrait"/>
   <headerFooter/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="81" max="16383" man="1"/>
+    <brk id="80" max="16383" man="1"/>
   </rowBreaks>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
